--- a/data/rookiedraft2019.xlsx
+++ b/data/rookiedraft2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmalig\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothyjung/Desktop/FP/NBARookieAnalysis-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B40C9E6C-B576-4AF5-AEA0-F193B8099D45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CF98D2-A67B-3943-9132-58682D3B32EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDE60E92-4B28-47F3-9C1E-CD27DDD458BA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{EDE60E92-4B28-47F3-9C1E-CD27DDD458BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>SF</t>
   </si>
@@ -214,12 +214,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -234,13 +240,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -550,15 +578,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7007BFB5-D2FE-42DA-A24A-ACF633F5D5C0}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -572,7 +606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -586,7 +620,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -597,11 +631,11 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D3:D48" si="0">$D$2</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -612,11 +646,11 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -627,11 +661,11 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -642,11 +676,11 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -657,11 +691,11 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -672,11 +706,11 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -687,11 +721,11 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -702,11 +736,11 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -717,11 +751,11 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -732,11 +766,11 @@
         <v>15</v>
       </c>
       <c r="D12">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -747,11 +781,11 @@
         <v>18</v>
       </c>
       <c r="D13">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -762,11 +796,11 @@
         <v>19</v>
       </c>
       <c r="D14">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -777,11 +811,11 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -792,11 +826,11 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -807,11 +841,11 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -822,11 +856,11 @@
         <v>28</v>
       </c>
       <c r="D18">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -837,11 +871,11 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -852,11 +886,11 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -867,11 +901,11 @@
         <v>31</v>
       </c>
       <c r="D21">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -882,11 +916,11 @@
         <v>32</v>
       </c>
       <c r="D22">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -897,11 +931,11 @@
         <v>33</v>
       </c>
       <c r="D23">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -912,11 +946,11 @@
         <v>34</v>
       </c>
       <c r="D24">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -927,11 +961,11 @@
         <v>37</v>
       </c>
       <c r="D25">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -942,11 +976,11 @@
         <v>38</v>
       </c>
       <c r="D26">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -957,11 +991,11 @@
         <v>39</v>
       </c>
       <c r="D27">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -972,11 +1006,11 @@
         <v>40</v>
       </c>
       <c r="D28">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -987,26 +1021,26 @@
         <v>41</v>
       </c>
       <c r="D29">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>42</v>
       </c>
-      <c r="D30">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1017,11 +1051,11 @@
         <v>43</v>
       </c>
       <c r="D31">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1032,11 +1066,11 @@
         <v>44</v>
       </c>
       <c r="D32">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1047,11 +1081,11 @@
         <v>47</v>
       </c>
       <c r="D33">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1062,11 +1096,11 @@
         <v>48</v>
       </c>
       <c r="D34">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1077,11 +1111,11 @@
         <v>50</v>
       </c>
       <c r="D35">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1092,11 +1126,11 @@
         <v>53</v>
       </c>
       <c r="D36">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1107,11 +1141,11 @@
         <v>54</v>
       </c>
       <c r="D37">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -1122,11 +1156,11 @@
         <v>56</v>
       </c>
       <c r="D38">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1137,11 +1171,11 @@
         <v>57</v>
       </c>
       <c r="D39">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -1152,11 +1186,11 @@
         <v>58</v>
       </c>
       <c r="D40">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1167,11 +1201,11 @@
         <v>59</v>
       </c>
       <c r="D41">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1182,11 +1216,11 @@
         <v>60</v>
       </c>
       <c r="D42">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1197,11 +1231,11 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1212,11 +1246,11 @@
         <v>8</v>
       </c>
       <c r="D44">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1227,11 +1261,11 @@
         <v>16</v>
       </c>
       <c r="D45">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1242,11 +1276,11 @@
         <v>26</v>
       </c>
       <c r="D46">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1257,11 +1291,11 @@
         <v>20</v>
       </c>
       <c r="D47">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -1272,26 +1306,17 @@
         <v>12</v>
       </c>
       <c r="D48">
-        <f>$D$2</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>42</v>
-      </c>
-      <c r="D49">
-        <f>$D$2</f>
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>